--- a/Feature-Analysis/Resize Feature/s_22_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_22_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.50696759264</v>
+        <v>738157.50696759264</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.50767361117</v>
+        <v>738157.50767361117</v>
       </c>
       <c r="C3" s="0">
         <v>61.000001057982445</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.50800925924</v>
+        <v>738157.50800925924</v>
       </c>
       <c r="C4" s="0">
         <v>89.99999463558197</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.50837962958</v>
+        <v>738157.50837962958</v>
       </c>
       <c r="C5" s="0">
         <v>121.99999205768108</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.50870370376</v>
+        <v>738157.50870370376</v>
       </c>
       <c r="C6" s="0">
         <v>150.00000111758709</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.50906249997</v>
+        <v>738157.50906249997</v>
       </c>
       <c r="C7" s="0">
         <v>180.99999390542507</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.5097685185</v>
+        <v>738157.5097685185</v>
       </c>
       <c r="C8" s="0">
         <v>241.99999496340752</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.5097685185</v>
+        <v>738157.5097685185</v>
       </c>
       <c r="C9" s="0">
         <v>241.99999496340752</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.51010416669</v>
+        <v>738157.51010416669</v>
       </c>
       <c r="C10" s="0">
         <v>270.99999859929085</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.51042824076</v>
+        <v>738157.51042824076</v>
       </c>
       <c r="C11" s="0">
         <v>298.99999760091305</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.51078703708</v>
+        <v>738157.51078703708</v>
       </c>
       <c r="C12" s="0">
         <v>330.00000044703484</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.5111458333</v>
+        <v>738157.5111458333</v>
       </c>
       <c r="C13" s="0">
         <v>360.99999323487282</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.51150462963</v>
+        <v>738157.51150462963</v>
       </c>
       <c r="C14" s="0">
         <v>391.99999608099461</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.51182870369</v>
+        <v>738157.51182870369</v>
       </c>
       <c r="C15" s="0">
         <v>419.99999508261681</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.51217592589</v>
+        <v>738157.51217592589</v>
       </c>
       <c r="C16" s="0">
         <v>449.99999329447746</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.51251157408</v>
+        <v>738157.51251157408</v>
       </c>
       <c r="C17" s="0">
         <v>478.99999693036079</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.51285879628</v>
+        <v>738157.51285879628</v>
       </c>
       <c r="C18" s="0">
         <v>508.99999514222145</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.51355324069</v>
+        <v>738157.51355324069</v>
       </c>
       <c r="C19" s="0">
         <v>568.99999156594276</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.51355324069</v>
+        <v>738157.51355324069</v>
       </c>
       <c r="C20" s="0">
         <v>568.99999156594276</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.51392361114</v>
+        <v>738157.51392361114</v>
       </c>
       <c r="C21" s="0">
         <v>600.99999904632568</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.51458333328</v>
+        <v>738157.51458333328</v>
       </c>
       <c r="C22" s="0">
         <v>657.99999162554741</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.51494212961</v>
+        <v>738157.51494212961</v>
       </c>
       <c r="C23" s="0">
         <v>688.9999944716692</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.51528935181</v>
+        <v>738157.51528935181</v>
       </c>
       <c r="C24" s="0">
         <v>718.99999268352985</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.51569444442</v>
+        <v>738157.51569444442</v>
       </c>
       <c r="C25" s="0">
         <v>753.99999395012856</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.51599537034</v>
+        <v>738157.51599537034</v>
       </c>
       <c r="C26" s="0">
         <v>779.9999937415123</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.51634259254</v>
+        <v>738157.51634259254</v>
       </c>
       <c r="C27" s="0">
         <v>809.99999195337296</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.51670138887</v>
+        <v>738157.51670138887</v>
       </c>
       <c r="C28" s="0">
         <v>840.99999479949474</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.51704861107</v>
+        <v>738157.51704861107</v>
       </c>
       <c r="C29" s="0">
         <v>870.9999930113554</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.51737268514</v>
+        <v>738157.51737268514</v>
       </c>
       <c r="C30" s="0">
         <v>898.9999920129776</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.51773148146</v>
+        <v>738157.51773148146</v>
       </c>
       <c r="C31" s="0">
         <v>929.99999485909939</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.51806712965</v>
+        <v>738157.51806712965</v>
       </c>
       <c r="C32" s="0">
         <v>958.99999849498272</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.5184375</v>
+        <v>738157.5184375</v>
       </c>
       <c r="C33" s="0">
         <v>990.99999591708183</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.51877314819</v>
+        <v>738157.51877314819</v>
       </c>
       <c r="C34" s="0">
         <v>1019.9999995529652</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.51914351853</v>
+        <v>738157.51914351853</v>
       </c>
       <c r="C35" s="0">
         <v>1051.9999969750643</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.51946759259</v>
+        <v>738157.51946759259</v>
       </c>
       <c r="C36" s="0">
         <v>1079.9999959766865</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.5198726852</v>
+        <v>738157.5198726852</v>
       </c>
       <c r="C37" s="0">
         <v>1114.9999972432852</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.52017361112</v>
+        <v>738157.52017361112</v>
       </c>
       <c r="C38" s="0">
         <v>1140.9999970346689</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.52052083332</v>
+        <v>738157.52052083332</v>
       </c>
       <c r="C39" s="0">
         <v>1170.9999952465296</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.52086805552</v>
+        <v>738157.52086805552</v>
       </c>
       <c r="C40" s="0">
         <v>1200.9999934583902</v>
